--- a/downloaded_files/EECS304_Lecture-35307.xlsx
+++ b/downloaded_files/EECS304_Lecture-35307.xlsx
@@ -186,15 +186,6 @@
     <x:t>Ziad abdelraouf hassan aboelhaded</x:t>
   </x:si>
   <x:si>
-    <x:t>1210238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى ناصر عبدالوهاب الحسيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
-  </x:si>
-  <x:si>
     <x:t>2230012</x:t>
   </x:si>
   <x:si>
@@ -319,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Emad Abd ELmoniem Elmazloum Mohammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
   </x:si>
   <x:si>
     <x:t>1230114</x:t>
@@ -1414,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6648877315</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45907.4199719097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4199719097</x:v>
+        <x:v>45913.0284867708</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.0284867708</x:v>
+        <x:v>45909.4343498032</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4343498032</x:v>
+        <x:v>45913.0271227662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.0271227662</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45907.4200462963</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4200462963</x:v>
+        <x:v>45907.4219015394</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4219015394</x:v>
+        <x:v>45912.9879304051</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.9879304051</x:v>
+        <x:v>45907.414474919</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.414474919</x:v>
+        <x:v>45907.4200544329</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4200544329</x:v>
+        <x:v>45913.1373621528</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45913.1373621528</x:v>
+        <x:v>45907.4144641204</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4144641204</x:v>
+        <x:v>45927.7627194792</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>

--- a/downloaded_files/EECS304_Lecture-35307.xlsx
+++ b/downloaded_files/EECS304_Lecture-35307.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Moaz Mohamed Alsayed Hashem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين حسن حامد محمد خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1230122</x:t>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1958,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45928.3998574074</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Lecture-35307.xlsx
+++ b/downloaded_files/EECS304_Lecture-35307.xlsx
@@ -165,7 +165,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1230033</x:t>
@@ -201,7 +201,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230058</x:t>
@@ -228,7 +228,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230220</x:t>
@@ -255,7 +255,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1230082</x:t>
@@ -318,7 +318,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1230114</x:t>
@@ -797,7 +797,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.840625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS304_Lecture-35307.xlsx
+++ b/downloaded_files/EECS304_Lecture-35307.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230003</x:t>
